--- a/fuentes/contenidos/grado11/guion05/Escaleta_LE_11_05_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion05/Escaleta_LE_11_05_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\GRADO ONCE\GUION 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado11\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1031,16 +1031,34 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,24 +1104,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1410,128 +1410,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U240"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.85" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.73046875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="33.265625" style="21" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="32.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="28" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.86328125" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" customWidth="1"/>
+    <col min="13" max="14" width="9.265625" customWidth="1"/>
+    <col min="15" max="15" width="37.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.59765625" style="32" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="20.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.86328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.73046875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+    <row r="2" spans="1:21" s="18" customFormat="1" ht="12.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="57"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>200</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>8</v>
@@ -2619,7 +2619,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="T24" s="31"/>
       <c r="U24" s="29"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -2963,378 +2963,196 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="12.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3349,6 +3167,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3371,7 +3195,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K26 I3:I26 P3:P26</xm:sqref>
+          <xm:sqref>P3:P26 I3:I26 K3:K26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3399,27 +3223,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3284,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3479,7 +3303,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3322,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3338,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3531,7 +3355,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3372,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3563,7 +3387,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3578,7 +3402,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3593,7 +3417,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3608,7 +3432,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3623,7 +3447,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3638,7 +3462,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3653,7 +3477,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3668,7 +3492,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3683,7 +3507,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -3697,7 +3521,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -3711,7 +3535,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -3725,7 +3549,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -3739,7 +3563,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3754,7 +3578,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3769,7 +3593,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3784,7 +3608,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3799,7 +3623,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3814,7 +3638,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3829,7 +3653,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3844,7 +3668,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3859,7 +3683,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3874,7 +3698,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3889,7 +3713,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3904,7 +3728,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3919,7 +3743,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3934,7 +3758,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3949,7 +3773,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3964,7 +3788,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3979,7 +3803,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3994,7 +3818,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4009,7 +3833,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4024,7 +3848,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4039,7 +3863,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4054,7 +3878,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4069,7 +3893,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4084,7 +3908,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4099,7 +3923,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4114,7 +3938,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4129,7 +3953,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4144,7 +3968,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4159,7 +3983,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4171,7 +3995,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4183,7 +4007,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4196,7 +4020,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4209,7 +4033,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4222,7 +4046,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4235,7 +4059,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4248,7 +4072,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4261,7 +4085,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4274,7 +4098,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4287,7 +4111,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4300,7 +4124,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4313,7 +4137,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4326,7 +4150,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4339,7 +4163,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4352,7 +4176,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4365,7 +4189,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4378,7 +4202,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4391,7 +4215,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4404,7 +4228,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4417,7 +4241,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4430,7 +4254,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4443,7 +4267,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4457,7 +4281,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4471,7 +4295,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4485,7 +4309,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4499,7 +4323,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4513,7 +4337,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4527,7 +4351,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4541,7 +4365,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4555,7 +4379,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4569,7 +4393,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4583,7 +4407,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4597,7 +4421,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4611,7 +4435,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4625,7 +4449,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4639,7 +4463,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4653,7 +4477,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4667,7 +4491,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4681,7 +4505,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4695,7 +4519,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4709,7 +4533,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4723,7 +4547,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4737,7 +4561,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4751,7 +4575,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4765,7 +4589,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4779,7 +4603,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4793,7 +4617,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4807,7 +4631,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4821,7 +4645,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4835,7 +4659,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4849,7 +4673,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4863,7 +4687,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4877,7 +4701,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4891,7 +4715,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4905,7 +4729,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4919,7 +4743,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4933,7 +4757,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4947,7 +4771,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4961,7 +4785,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4975,7 +4799,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4989,7 +4813,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5003,7 +4827,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5017,7 +4841,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5031,7 +4855,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5045,7 +4869,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5059,7 +4883,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5073,7 +4897,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5087,7 +4911,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5101,7 +4925,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5115,7 +4939,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5129,7 +4953,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5143,7 +4967,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5157,7 +4981,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5171,7 +4995,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5185,7 +5009,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5199,7 +5023,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5213,7 +5037,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5227,7 +5051,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5241,7 +5065,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5255,7 +5079,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5269,7 +5093,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5283,7 +5107,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5297,7 +5121,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5311,7 +5135,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
